--- a/results/watershed_segmentation_results.xlsx
+++ b/results/watershed_segmentation_results.xlsx
@@ -5,22 +5,25 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\edge_detection_and_contours\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mkkad\Desktop\github_repos\heart_cardiac_mri_image_processing\results\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38955E6E-E1EF-45EC-8F8F-E9343E66DABF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F98FA7E2-FAD4-445D-BE34-5C6BCAF7AEFF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11352" yWindow="2796" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="11208" yWindow="3444" windowWidth="11124" windowHeight="9960" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Sheet1!$A$1:$H$192</definedName>
+  </definedNames>
   <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1172" uniqueCount="1020">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1154" uniqueCount="1004">
   <si>
     <t>patient_id</t>
   </si>
@@ -2639,54 +2642,6 @@
   </si>
   <si>
     <t>SCD_IMAGES_04\SCD0003801\CINESAX_301\IM-0006-0321_mask_marching_cubes.png</t>
-  </si>
-  <si>
-    <t>SCD0003901</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0001.dcm</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0001.png</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0001_mask.png</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0001.csv</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0001_mask_marching_cubes.png</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0029.dcm</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0029.png</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0029_mask.png</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0029.csv</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0029_mask_marching_cubes.png</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0085.dcm</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0085.png</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0085_mask.png</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0085.csv</t>
-  </si>
-  <si>
-    <t>SCD_IMAGES_04\SCD0003901\CINESAX_13\IM-0011-0085_mask_marching_cubes.png</t>
   </si>
   <si>
     <t>SCD0004001</t>
@@ -3442,13 +3397,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:H195"/>
+  <dimension ref="A1:H192"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1:I1048576"/>
+    <sheetView tabSelected="1" topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="11.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="56" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="60.77734375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="55.109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="75.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="12" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
@@ -7812,10 +7776,10 @@
         <v>878</v>
       </c>
       <c r="G168">
-        <v>0.40443640947341919</v>
+        <v>0.42349457740783691</v>
       </c>
       <c r="H168">
-        <v>0.25347557663917542</v>
+        <v>0.26862868666648859</v>
       </c>
     </row>
     <row r="169" spans="1:8" x14ac:dyDescent="0.3">
@@ -7838,10 +7802,10 @@
         <v>883</v>
       </c>
       <c r="G169">
-        <v>6.4780645072460175E-2</v>
+        <v>0.90740740299224854</v>
       </c>
       <c r="H169">
-        <v>3.3474575728178017E-2</v>
+        <v>0.83050847053527832</v>
       </c>
     </row>
     <row r="170" spans="1:8" x14ac:dyDescent="0.3">
@@ -7864,41 +7828,41 @@
         <v>888</v>
       </c>
       <c r="G170">
-        <v>0.29763561487197882</v>
+        <v>0.92887032032012939</v>
       </c>
       <c r="H170">
-        <v>0.17483660578727719</v>
+        <v>0.8671875</v>
       </c>
     </row>
     <row r="171" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
+        <v>873</v>
+      </c>
+      <c r="B171" t="s">
         <v>889</v>
       </c>
-      <c r="B171" t="s">
+      <c r="C171" t="s">
         <v>890</v>
       </c>
-      <c r="C171" t="s">
+      <c r="D171" t="s">
         <v>891</v>
       </c>
-      <c r="D171" t="s">
+      <c r="E171" t="s">
         <v>892</v>
       </c>
-      <c r="E171" t="s">
+      <c r="F171" t="s">
         <v>893</v>
       </c>
-      <c r="F171" t="s">
-        <v>894</v>
-      </c>
       <c r="G171">
-        <v>0.42349457740783691</v>
+        <v>0.89361703395843506</v>
       </c>
       <c r="H171">
-        <v>0.26862868666648859</v>
+        <v>0.80769228935241699</v>
       </c>
     </row>
     <row r="172" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B172" t="s">
         <v>895</v>
@@ -7916,15 +7880,15 @@
         <v>899</v>
       </c>
       <c r="G172">
-        <v>0.90740740299224854</v>
+        <v>0.6382061243057251</v>
       </c>
       <c r="H172">
-        <v>0.83050847053527832</v>
+        <v>0.46865105628967291</v>
       </c>
     </row>
     <row r="173" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B173" t="s">
         <v>900</v>
@@ -7942,15 +7906,15 @@
         <v>904</v>
       </c>
       <c r="G173">
-        <v>0.92887032032012939</v>
+        <v>0.90368270874023438</v>
       </c>
       <c r="H173">
-        <v>0.8671875</v>
+        <v>0.82428938150405884</v>
       </c>
     </row>
     <row r="174" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>889</v>
+        <v>894</v>
       </c>
       <c r="B174" t="s">
         <v>905</v>
@@ -7968,41 +7932,41 @@
         <v>909</v>
       </c>
       <c r="G174">
-        <v>0.89361703395843506</v>
+        <v>0.94278168678283691</v>
       </c>
       <c r="H174">
-        <v>0.80769228935241699</v>
+        <v>0.89175689220428467</v>
       </c>
     </row>
     <row r="175" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
+        <v>894</v>
+      </c>
+      <c r="B175" t="s">
         <v>910</v>
       </c>
-      <c r="B175" t="s">
+      <c r="C175" t="s">
         <v>911</v>
       </c>
-      <c r="C175" t="s">
+      <c r="D175" t="s">
         <v>912</v>
       </c>
-      <c r="D175" t="s">
+      <c r="E175" t="s">
         <v>913</v>
       </c>
-      <c r="E175" t="s">
+      <c r="F175" t="s">
         <v>914</v>
       </c>
-      <c r="F175" t="s">
-        <v>915</v>
-      </c>
       <c r="G175">
-        <v>0.6382061243057251</v>
+        <v>5.8479532327737624E-9</v>
       </c>
       <c r="H175">
-        <v>0.46865105628967291</v>
+        <v>5.8479532327737624E-9</v>
       </c>
     </row>
     <row r="176" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="B176" t="s">
         <v>916</v>
@@ -8020,15 +7984,15 @@
         <v>920</v>
       </c>
       <c r="G176">
-        <v>0.90368270874023438</v>
+        <v>0.85400909185409546</v>
       </c>
       <c r="H176">
-        <v>0.82428938150405884</v>
+        <v>0.74521452188491821</v>
       </c>
     </row>
     <row r="177" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="B177" t="s">
         <v>921</v>
@@ -8046,15 +8010,15 @@
         <v>925</v>
       </c>
       <c r="G177">
-        <v>0.94278168678283691</v>
+        <v>0.69181817770004272</v>
       </c>
       <c r="H177">
-        <v>0.89175689220428467</v>
+        <v>0.52883946895599365</v>
       </c>
     </row>
     <row r="178" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>910</v>
+        <v>915</v>
       </c>
       <c r="B178" t="s">
         <v>926</v>
@@ -8072,41 +8036,41 @@
         <v>930</v>
       </c>
       <c r="G178">
-        <v>5.8479532327737624E-9</v>
+        <v>0.80114448070526123</v>
       </c>
       <c r="H178">
-        <v>5.8479532327737624E-9</v>
+        <v>0.66825777292251587</v>
       </c>
     </row>
     <row r="179" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
+        <v>915</v>
+      </c>
+      <c r="B179" t="s">
         <v>931</v>
       </c>
-      <c r="B179" t="s">
+      <c r="C179" t="s">
         <v>932</v>
       </c>
-      <c r="C179" t="s">
+      <c r="D179" t="s">
         <v>933</v>
       </c>
-      <c r="D179" t="s">
+      <c r="E179" t="s">
         <v>934</v>
       </c>
-      <c r="E179" t="s">
+      <c r="F179" t="s">
         <v>935</v>
       </c>
-      <c r="F179" t="s">
-        <v>936</v>
-      </c>
       <c r="G179">
-        <v>0.85400909185409546</v>
+        <v>1.6313214112884109E-9</v>
       </c>
       <c r="H179">
-        <v>0.74521452188491821</v>
+        <v>1.6313214112884109E-9</v>
       </c>
     </row>
     <row r="180" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="B180" t="s">
         <v>937</v>
@@ -8124,15 +8088,15 @@
         <v>941</v>
       </c>
       <c r="G180">
-        <v>0.69181817770004272</v>
+        <v>0.61419153213500977</v>
       </c>
       <c r="H180">
-        <v>0.52883946895599365</v>
+        <v>0.44320088624954218</v>
       </c>
     </row>
     <row r="181" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="B181" t="s">
         <v>942</v>
@@ -8150,15 +8114,15 @@
         <v>946</v>
       </c>
       <c r="G181">
-        <v>0.80114448070526123</v>
+        <v>0.75661373138427734</v>
       </c>
       <c r="H181">
-        <v>0.66825777292251587</v>
+        <v>0.60851061344146729</v>
       </c>
     </row>
     <row r="182" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>931</v>
+        <v>936</v>
       </c>
       <c r="B182" t="s">
         <v>947</v>
@@ -8176,41 +8140,41 @@
         <v>951</v>
       </c>
       <c r="G182">
-        <v>1.6313214112884109E-9</v>
+        <v>8.7873464060805873E-10</v>
       </c>
       <c r="H182">
-        <v>1.6313214112884109E-9</v>
+        <v>8.7873464060805873E-10</v>
       </c>
     </row>
     <row r="183" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
+        <v>936</v>
+      </c>
+      <c r="B183" t="s">
         <v>952</v>
       </c>
-      <c r="B183" t="s">
+      <c r="C183" t="s">
         <v>953</v>
       </c>
-      <c r="C183" t="s">
+      <c r="D183" t="s">
         <v>954</v>
       </c>
-      <c r="D183" t="s">
+      <c r="E183" t="s">
         <v>955</v>
       </c>
-      <c r="E183" t="s">
+      <c r="F183" t="s">
         <v>956</v>
       </c>
-      <c r="F183" t="s">
-        <v>957</v>
-      </c>
       <c r="G183">
-        <v>0.61419153213500977</v>
+        <v>0.13031914830207819</v>
       </c>
       <c r="H183">
-        <v>0.44320088624954218</v>
+        <v>6.970127671957016E-2</v>
       </c>
     </row>
     <row r="184" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="B184" t="s">
         <v>958</v>
@@ -8228,15 +8192,15 @@
         <v>962</v>
       </c>
       <c r="G184">
-        <v>0.75661373138427734</v>
+        <v>0.47411313652992249</v>
       </c>
       <c r="H184">
-        <v>0.60851061344146729</v>
+        <v>0.31071317195892328</v>
       </c>
     </row>
     <row r="185" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="B185" t="s">
         <v>963</v>
@@ -8254,15 +8218,15 @@
         <v>967</v>
       </c>
       <c r="G185">
-        <v>8.7873464060805873E-10</v>
+        <v>0.40528401732444758</v>
       </c>
       <c r="H185">
-        <v>8.7873464060805873E-10</v>
+        <v>0.25414180755615229</v>
       </c>
     </row>
     <row r="186" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>952</v>
+        <v>957</v>
       </c>
       <c r="B186" t="s">
         <v>968</v>
@@ -8280,67 +8244,67 @@
         <v>972</v>
       </c>
       <c r="G186">
-        <v>0.13031914830207819</v>
+        <v>0.36907562613487238</v>
       </c>
       <c r="H186">
-        <v>6.970127671957016E-2</v>
+        <v>0.2262984365224838</v>
       </c>
     </row>
     <row r="187" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
+        <v>957</v>
+      </c>
+      <c r="B187" t="s">
         <v>973</v>
       </c>
-      <c r="B187" t="s">
+      <c r="C187" t="s">
         <v>974</v>
       </c>
-      <c r="C187" t="s">
+      <c r="D187" t="s">
         <v>975</v>
       </c>
-      <c r="D187" t="s">
+      <c r="E187" t="s">
         <v>976</v>
       </c>
-      <c r="E187" t="s">
+      <c r="F187" t="s">
         <v>977</v>
       </c>
-      <c r="F187" t="s">
-        <v>978</v>
-      </c>
       <c r="G187">
-        <v>0.47411313652992249</v>
+        <v>0.21424801647663119</v>
       </c>
       <c r="H187">
-        <v>0.31071317195892328</v>
+        <v>0.1199763566255569</v>
       </c>
     </row>
     <row r="188" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>973</v>
+        <v>957</v>
       </c>
       <c r="B188" t="s">
+        <v>978</v>
+      </c>
+      <c r="C188" t="s">
         <v>979</v>
       </c>
-      <c r="C188" t="s">
+      <c r="D188" t="s">
         <v>980</v>
       </c>
-      <c r="D188" t="s">
+      <c r="E188" t="s">
         <v>981</v>
       </c>
-      <c r="E188" t="s">
+      <c r="F188" t="s">
         <v>982</v>
       </c>
-      <c r="F188" t="s">
-        <v>983</v>
-      </c>
       <c r="G188">
-        <v>0.40528401732444758</v>
+        <v>0.19161677360534671</v>
       </c>
       <c r="H188">
-        <v>0.25414180755615229</v>
+        <v>0.10596026480197911</v>
       </c>
     </row>
     <row r="189" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="B189" t="s">
         <v>984</v>
@@ -8358,15 +8322,15 @@
         <v>988</v>
       </c>
       <c r="G189">
-        <v>0.36907562613487238</v>
+        <v>0.41082218289375311</v>
       </c>
       <c r="H189">
-        <v>0.2262984365224838</v>
+        <v>0.25851240754127502</v>
       </c>
     </row>
     <row r="190" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="B190" t="s">
         <v>989</v>
@@ -8384,15 +8348,15 @@
         <v>993</v>
       </c>
       <c r="G190">
-        <v>0.21424801647663119</v>
+        <v>0.5908699631690979</v>
       </c>
       <c r="H190">
-        <v>0.1199763566255569</v>
+        <v>0.4193153977394104</v>
       </c>
     </row>
     <row r="191" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>973</v>
+        <v>983</v>
       </c>
       <c r="B191" t="s">
         <v>994</v>
@@ -8410,113 +8374,35 @@
         <v>998</v>
       </c>
       <c r="G191">
-        <v>0.19161677360534671</v>
+        <v>0.88455772399902344</v>
       </c>
       <c r="H191">
-        <v>0.10596026480197911</v>
+        <v>0.79301077127456665</v>
       </c>
     </row>
     <row r="192" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
+        <v>983</v>
+      </c>
+      <c r="B192" t="s">
         <v>999</v>
       </c>
-      <c r="B192" t="s">
+      <c r="C192" t="s">
         <v>1000</v>
       </c>
-      <c r="C192" t="s">
+      <c r="D192" t="s">
         <v>1001</v>
       </c>
-      <c r="D192" t="s">
+      <c r="E192" t="s">
         <v>1002</v>
       </c>
-      <c r="E192" t="s">
+      <c r="F192" t="s">
         <v>1003</v>
       </c>
-      <c r="F192" t="s">
-        <v>1004</v>
-      </c>
       <c r="G192">
-        <v>0.41082218289375311</v>
+        <v>0.88517743349075317</v>
       </c>
       <c r="H192">
-        <v>0.25851240754127502</v>
-      </c>
-    </row>
-    <row r="193" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A193" t="s">
-        <v>999</v>
-      </c>
-      <c r="B193" t="s">
-        <v>1005</v>
-      </c>
-      <c r="C193" t="s">
-        <v>1006</v>
-      </c>
-      <c r="D193" t="s">
-        <v>1007</v>
-      </c>
-      <c r="E193" t="s">
-        <v>1008</v>
-      </c>
-      <c r="F193" t="s">
-        <v>1009</v>
-      </c>
-      <c r="G193">
-        <v>0.5908699631690979</v>
-      </c>
-      <c r="H193">
-        <v>0.4193153977394104</v>
-      </c>
-    </row>
-    <row r="194" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A194" t="s">
-        <v>999</v>
-      </c>
-      <c r="B194" t="s">
-        <v>1010</v>
-      </c>
-      <c r="C194" t="s">
-        <v>1011</v>
-      </c>
-      <c r="D194" t="s">
-        <v>1012</v>
-      </c>
-      <c r="E194" t="s">
-        <v>1013</v>
-      </c>
-      <c r="F194" t="s">
-        <v>1014</v>
-      </c>
-      <c r="G194">
-        <v>0.88455772399902344</v>
-      </c>
-      <c r="H194">
-        <v>0.79301077127456665</v>
-      </c>
-    </row>
-    <row r="195" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="A195" t="s">
-        <v>999</v>
-      </c>
-      <c r="B195" t="s">
-        <v>1015</v>
-      </c>
-      <c r="C195" t="s">
-        <v>1016</v>
-      </c>
-      <c r="D195" t="s">
-        <v>1017</v>
-      </c>
-      <c r="E195" t="s">
-        <v>1018</v>
-      </c>
-      <c r="F195" t="s">
-        <v>1019</v>
-      </c>
-      <c r="G195">
-        <v>0.88517743349075317</v>
-      </c>
-      <c r="H195">
         <v>0.79400748014450073</v>
       </c>
     </row>
